--- a/biology/Botanique/Astragalus_glycyphyllos/Astragalus_glycyphyllos.xlsx
+++ b/biology/Botanique/Astragalus_glycyphyllos/Astragalus_glycyphyllos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Astragale réglisse, Astragale à feuilles de réglisse ou Réglisse sauvage (Astragalus glycyphyllos), est une espèce de plante herbacée vivace de la famille des Fabacées.
 </t>
@@ -513,10 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-Plante vivace de 30 cm à 1 mètre de hauteur (exceptionnellement 1,5 m), presque glabre, elle est couchée ou ascendante. Ses feuilles imparipennées comportent 4-6 paires de grandes folioles ovales. Les stipules supérieures sont lancéolées-acuminées[1].
-Appareil reproducteur
-L'inflorescence est racème capituliforme qui comporte des fleurs hermaphrodites d'un jaune verdâtre ou livides, assez grandes, sur des pédoncules axillaires 2 fois plus courts que la feuille. La floraison va de mai à août, la pollinisation entomogame. Les fruits sont des gousses à dissémination : barochore[1].
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plante vivace de 30 cm à 1 mètre de hauteur (exceptionnellement 1,5 m), presque glabre, elle est couchée ou ascendante. Ses feuilles imparipennées comportent 4-6 paires de grandes folioles ovales. Les stipules supérieures sont lancéolées-acuminées.
 </t>
         </is>
       </c>
@@ -542,10 +557,49 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'inflorescence est racème capituliforme qui comporte des fleurs hermaphrodites d'un jaune verdâtre ou livides, assez grandes, sur des pédoncules axillaires 2 fois plus courts que la feuille. La floraison va de mai à août, la pollinisation entomogame. Les fruits sont des gousses à dissémination : barochore.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Astragalus_glycyphyllos</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Astragalus_glycyphyllos</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Habitat type : ourlets basophiles médioeuropéens (développés sur des sols riches en calcium, secs, assez superficiels et généralement pauvres en azote.)
 Aire de répartition : eurasiatique
@@ -554,34 +608,36 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Astragalus_glycyphyllos</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Astragalus_glycyphyllos</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette plante est réputée traiter les inflammations du système respiratoire, les ulcères gastriques ou duodénaux, la gastrite chronique, l’insuffisance surrénale[réf. nécessaire][2], soulager les symptômes de l'arthrite et les douleurs rhumatismales.
-Ses fleurs et surtout ses feuilles renferment de la glycyrrhizine, substance qui donne à la racine de réglisse son goût caractéristique[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante est réputée traiter les inflammations du système respiratoire, les ulcères gastriques ou duodénaux, la gastrite chronique, l’insuffisance surrénale[réf. nécessaire], soulager les symptômes de l'arthrite et les douleurs rhumatismales.
+Ses fleurs et surtout ses feuilles renferment de la glycyrrhizine, substance qui donne à la racine de réglisse son goût caractéristique.
 </t>
         </is>
       </c>
